--- a/Hardware/v2.2 4HP/BOM_ContourLine2.2 4HP_ContourLine2.2 4HP_2024-06-07.xlsx
+++ b/Hardware/v2.2 4HP/BOM_ContourLine2.2 4HP_ContourLine2.2 4HP_2024-06-07.xlsx
@@ -974,16 +974,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1179,828 +1183,828 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.46875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="1" style="0" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="1" style="1" width="17.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="L16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="M16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="L20" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Hardware/v2.2 4HP/BOM_ContourLine2.2 4HP_ContourLine2.2 4HP_2024-06-07.xlsx
+++ b/Hardware/v2.2 4HP/BOM_ContourLine2.2 4HP_ContourLine2.2 4HP_2024-06-07.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="151">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -575,7 +575,7 @@
     <t xml:space="preserve">499kΩ</t>
   </si>
   <si>
-    <t xml:space="preserve">R2,R25,R105,R106</t>
+    <t xml:space="preserve">R2,R105,R106</t>
   </si>
   <si>
     <t xml:space="preserve">RT0805BRD07499KL</t>
@@ -882,6 +882,12 @@
       </rPr>
       <t xml:space="preserve">输入运放</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">47k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R25,</t>
   </si>
 </sst>
 </file>
@@ -1182,8 +1188,8 @@
   </sheetPr>
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.46875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2006,6 +2012,41 @@
       </c>
       <c r="N20" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
